--- a/medicine/Psychotrope/Vin_muté/Vin_muté.xlsx
+++ b/medicine/Psychotrope/Vin_muté/Vin_muté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vin_mut%C3%A9</t>
+          <t>Vin_muté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vin muté est un moût de raisin dont la fermentation alcoolique a été bloquée par mutage à l'alcool éthylique (eau-de-vie de vin essentiellement) ou encore parfois au soufre, pour conserver son sucre résiduel et son fruité.
 Il en existe deux types :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vin_mut%C3%A9</t>
+          <t>Vin_muté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode du mutage est assez ancienne. Elle est élaborée par Arnaud de Villeneuve, au XIIIe siècle, initialement afin d'améliorer la conservation lors du transport. Elle a permis de faciliter la maîtrise de la vinification. Ces vins mutés sont traditionnellement produits en bord de la Méditerranée. En effet, les cépages cultivés dans les régions du sud de la France, en Espagne, en Italie, en Grèce, étant plus résistants aux climats chauds et secs, contiennent plus de sucre à maturité. Les cépages traditionnellement utilisés sont le muscat, le grenache, le macabeu ou le malvoisie. Cela induit un taux de sucres, et donc d'alcool dans le produit fini, plus important, plus fort en degré.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vin_mut%C3%A9</t>
+          <t>Vin_muté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le mutage ayant pour effet de bloquer la fermentation en cours de processus, le taux d'alcool dans le produit final est moins important, avec une conservation des sucres du raisin.
 Pour les vins doux naturels, l'ajout d'alcool se fait en cours de fermentation.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vin_mut%C3%A9</t>
+          <t>Vin_muté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vin doux naturel
-Les vins doux naturels français les plus connus sont le Muscat de Beaumes-de-Venise, en vallée du Rhône, le Muscat de Frontignan, en Languedoc, ou le Banyuls et le Rivesaltes, en Roussillon. D'autres produits, dans ces mêmes régions, ainsi que le Muscat du Cap-Corse, sur l'île de Beauté, sont disponibles à la consommation. Au Portugal, le madère et le porto[1] sont deux vins doux naturels.
-En France (Provence) et Italie (Marches, Abruzzes)[2] on produit du vin cuit en concentrant le moût par chauffage avant mutage. 
-Vin de liqueur
-Les régions françaises les plus connues pour la production de vins de liqueur sont les Charentes (vignoble des Charentes) avec le pineau, la Gascogne (vignoble de Gascogne) avec le floc, la Normandie avec le pommeau et le Jura avec le macvin. Une production de vin de liqueur existe également au Québec, avec l'ajout notamment de brandys.
+          <t>Vin doux naturel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins doux naturels français les plus connus sont le Muscat de Beaumes-de-Venise, en vallée du Rhône, le Muscat de Frontignan, en Languedoc, ou le Banyuls et le Rivesaltes, en Roussillon. D'autres produits, dans ces mêmes régions, ainsi que le Muscat du Cap-Corse, sur l'île de Beauté, sont disponibles à la consommation. Au Portugal, le madère et le porto sont deux vins doux naturels.
+En France (Provence) et Italie (Marches, Abruzzes) on produit du vin cuit en concentrant le moût par chauffage avant mutage. 
 </t>
         </is>
       </c>
@@ -594,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vin_mut%C3%A9</t>
+          <t>Vin_muté</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +628,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Les différents vins mutés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vin de liqueur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les régions françaises les plus connues pour la production de vins de liqueur sont les Charentes (vignoble des Charentes) avec le pineau, la Gascogne (vignoble de Gascogne) avec le floc, la Normandie avec le pommeau et le Jura avec le macvin. Une production de vin de liqueur existe également au Québec, avec l'ajout notamment de brandys.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vin_muté</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_mut%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Législation française</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le processus est contrôlé légalement par l'article 416 du code général des impôts, modifié par Loi no 81-1160 du 30 décembre 1981 - art. 37 (Sorti au Journal officiel du 31 décembre 1981 et entré en vigueur le 1er janvier 1982[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le processus est contrôlé légalement par l'article 416 du code général des impôts, modifié par Loi no 81-1160 du 30 décembre 1981 - art. 37 (Sorti au Journal officiel du 31 décembre 1981 et entré en vigueur le 1er janvier 1982.
 </t>
         </is>
       </c>
